--- a/biology/Médecine/Adolphe_Trébuchet/Adolphe_Trébuchet.xlsx
+++ b/biology/Médecine/Adolphe_Trébuchet/Adolphe_Trébuchet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Adolphe_Tr%C3%A9buchet</t>
+          <t>Adolphe_Trébuchet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adolphe Trébuchet est un administrateur français né le 11 décembre 1801 à Nantes et mort le 6 octobre 1865 à Fontenay-aux-Roses.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Adolphe_Tr%C3%A9buchet</t>
+          <t>Adolphe_Trébuchet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adolphe Trébuchet est le fils d'Anne Marie Joseph Trébuchet[1] et d'Anne Marie Liégaux. Il est le neveu de Sophie Trébuchet, la mère de Victor Hugo.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adolphe Trébuchet est le fils d'Anne Marie Joseph Trébuchet et d'Anne Marie Liégaux. Il est le neveu de Sophie Trébuchet, la mère de Victor Hugo.
 Après ses études de droit, se fait recevoir avocat à Paris et entre au cabinet du préfet de police de Paris. Nommé chef du bureau (1829), dans les attributions duquel sont placés le Conseil d'hygiène publique et de salubrité, il en devient membre et secrétaire.
 Il publie plusieurs travaux de codification et de jurisprudence liés aux questions d'hygiène publique et de salubrité.
 Le 25 mai 1858, il est élu associé libre de l'Académie de médecine. Il est également agent général de la Société d'encouragement pour l'industrie nationale.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Adolphe_Tr%C3%A9buchet</t>
+          <t>Adolphe_Trébuchet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Officier de la Légion d'honneur
  Chevalier de l'ordre de Vasa</t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Adolphe_Tr%C3%A9buchet</t>
+          <t>Adolphe_Trébuchet</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Code administratif des établissements dangereux, insalubres ou incommoda. Paris, 1832
 Jurisprudence de la médecine, de la chirurgie, et de la pharmacie en France, comprenant la médecine légale, la police médicale, la responsabilité des médecins, chirurgiens, pharmaciens, etc. [...]. Paris, 1834
